--- a/rest-with-db/src/test/resources/css/customer-self-service-with-db.xlsx
+++ b/rest-with-db/src/test/resources/css/customer-self-service-with-db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\September-release\microservices-lowcode-testautomation\src\test\resources\css\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\jan-release\microservices-lowcode-testautomation\rest-with-db\src\test\resources\css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89F0D0F-2326-4928-BE2A-3C6CB34B1463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79FCCF1-C6C0-42CE-97ED-DC85AEA4D6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
   </bookViews>
   <sheets>
     <sheet name="CSS-Accept-DB" sheetId="2" r:id="rId1"/>
@@ -236,11 +236,6 @@
     <t>InsuranceQuoteByDB</t>
   </si>
   <si>
-    <t>select iqr.id, iq.insurance_premium_amount, iq.insurance_premium_currency, iq.policy_limit_amount from insurancequotes iq INNER JOIN insurancequoterequests iqr on iq.id = iqr.insurance_quote_id and iqr.id  =  [quoteId]
-id,insurance_premium_amount, insurance_premium_currency, policy_limit_amount
-i~[quoteId],d~500.00,CHF,d~50000.00</t>
-  </si>
-  <si>
     <t>policy_limit_amount=[0].policy_limit_amount</t>
   </si>
   <si>
@@ -308,6 +303,10 @@
         "currency": "CHF"
     }
 }</t>
+  </si>
+  <si>
+    <t>id,insurance_premium_amount, insurance_premium_currency, policy_limit_amount
+i~[quoteId],d~500.00,CHF,d~50000.00</t>
   </si>
 </sst>
 </file>
@@ -1510,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87A57E5-F5BD-4861-8936-9E28488C0E70}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,7 +1576,7 @@
         <v>48</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1608,7 +1607,7 @@
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>24</v>
@@ -1657,7 +1656,7 @@
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -1768,7 +1767,7 @@
         <v>27</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>34</v>
@@ -1836,20 +1835,20 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1875,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558B51E2-E984-41DF-9C0A-F557E24A35FA}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,7 +1937,7 @@
         <v>48</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1968,7 +1967,7 @@
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>24</v>
@@ -2016,7 +2015,7 @@
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="75" x14ac:dyDescent="0.25">
@@ -2086,7 +2085,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="6" t="s">
@@ -2124,7 +2123,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>45</v>
@@ -2175,7 +2174,7 @@
     </row>
     <row r="8" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>51</v>
@@ -2184,23 +2183,23 @@
         <v>9</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K8" s="19"/>
       <c r="L8" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M8" s="23"/>
     </row>

--- a/rest-with-db/src/test/resources/css/customer-self-service-with-db.xlsx
+++ b/rest-with-db/src/test/resources/css/customer-self-service-with-db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\jan-release\microservices-lowcode-testautomation\rest-with-db\src\test\resources\css\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\feb-release\microservices-lowcode-testautomation\rest-with-db\src\test\resources\css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79FCCF1-C6C0-42CE-97ED-DC85AEA4D6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4750E5-D729-4D30-98D6-FC3FF972472F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
   </bookViews>
   <sheets>
     <sheet name="CSS-Accept-DB" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="76">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>REST</t>
-  </si>
-  <si>
-    <t>css</t>
   </si>
   <si>
     <t>http://34.66.48.215:8080/auth</t>
@@ -176,9 +173,6 @@
     <t>quoteId=id</t>
   </si>
   <si>
-    <t>quote</t>
-  </si>
-  <si>
     <t>{
     "status": "QUOTE_ACCEPTED" 
 }</t>
@@ -307,6 +301,39 @@
   <si>
     <t>id,insurance_premium_amount, insurance_premium_currency, policy_limit_amount
 i~[quoteId],d~500.00,CHF,d~50000.00</t>
+  </si>
+  <si>
+    <t>cssdb</t>
+  </si>
+  <si>
+    <t>cssapi</t>
+  </si>
+  <si>
+    <t>quoteapi</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @dynamic-date @dynamic-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @pass_dynamic_variables @workflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  @token @okta @store-response @variable @password @sceret @workflow  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  @store_response @workflow @create_response_variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @workflow @dynamic_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @json_Array @json_path</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @sql_select @sql_validate @store_sql_response</t>
   </si>
 </sst>
 </file>
@@ -378,7 +405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -497,68 +524,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -579,15 +552,23 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -601,189 +582,261 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -795,9 +848,15 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -853,7 +912,7 @@
           <bgColor theme="4" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -862,6 +921,12 @@
         </right>
         <top/>
         <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1507,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87A57E5-F5BD-4861-8936-9E28488C0E70}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,325 +1595,350 @@
     <col min="13" max="13" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="88.85546875" customWidth="1"/>
     <col min="15" max="15" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.42578125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4">
+        <v>200</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4">
+        <v>200</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4">
+        <v>200</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="390" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="4">
+        <v>200</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="4">
+        <v>200</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="4">
+        <v>200</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="6">
-        <v>200</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="9"/>
-    </row>
-    <row r="3" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="6">
-        <v>200</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="6">
-        <v>200</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" ht="390" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="6">
-        <v>200</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="9"/>
-    </row>
-    <row r="6" spans="1:15" ht="180" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="6">
-        <v>200</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="6">
-        <v>200</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>66</v>
+      <c r="P8" s="24" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1872,10 +1962,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558B51E2-E984-41DF-9C0A-F557E24A35FA}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1894,314 +1984,340 @@
     <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="35" customWidth="1"/>
     <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="12">
+        <v>200</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="12">
+        <v>200</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>64</v>
+      <c r="J3" s="12"/>
+      <c r="K3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="4" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="C4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="12">
+        <v>200</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="390" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="H5" s="12">
         <v>200</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="I5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="L5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="180" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="12">
+        <v>200</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="12">
+        <v>200</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6">
-        <v>200</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="6">
-        <v>200</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" ht="390" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="6">
-        <v>200</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" ht="180" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="6">
-        <v>200</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="6">
-        <v>200</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="F8" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="19" t="s">
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" s="23"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="22"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="24" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
